--- a/DATA_goal/Junction_Flooding_93.xlsx
+++ b/DATA_goal/Junction_Flooding_93.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41525.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>18.45</v>
+        <v>1.84</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.02</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>39.23</v>
+        <v>3.92</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>31.34</v>
+        <v>3.13</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>14.52</v>
+        <v>1.45</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>45.61</v>
+        <v>4.56</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>22.34</v>
+        <v>2.23</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>13.93</v>
+        <v>1.39</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>15.44</v>
+        <v>1.54</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.06</v>
+        <v>1.61</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.63</v>
+        <v>0.46</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.12</v>
+        <v>2.01</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.4</v>
+        <v>1.24</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.43</v>
+        <v>0.34</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>212.39</v>
+        <v>21.24</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>40.12</v>
+        <v>4.01</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>26.34</v>
+        <v>2.63</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>13.39</v>
+        <v>1.34</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.09</v>
+        <v>0.31</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>23.22</v>
+        <v>2.32</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.7</v>
+        <v>1.07</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.56</v>
+        <v>1.26</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.95</v>
+        <v>1.59</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.45</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>40.44</v>
+        <v>4.04</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41525.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.57</v>
+        <v>0.66</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>20.91</v>
+        <v>2.09</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.61</v>
+        <v>1.66</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>31.33</v>
+        <v>3.13</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.75</v>
+        <v>1.18</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.95</v>
+        <v>0.5</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.2</v>
+        <v>0.72</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.34</v>
+        <v>0.83</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.65</v>
+        <v>0.86</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.59</v>
+        <v>0.76</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.61</v>
+        <v>1.06</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.72</v>
+        <v>0.67</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>108.28</v>
+        <v>10.83</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>21.35</v>
+        <v>2.14</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.01</v>
+        <v>0.7</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.96</v>
+        <v>1.4</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.16</v>
+        <v>0.72</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>15.02</v>
+        <v>1.5</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.19</v>
+        <v>0.62</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.71</v>
+        <v>0.57</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>28.67</v>
+        <v>2.87</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41525.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>21.81</v>
+        <v>2.18</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.92</v>
+        <v>1.59</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>47.36</v>
+        <v>4.74</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>38.65</v>
+        <v>3.87</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.16</v>
+        <v>1.72</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>64.04000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>26.41</v>
+        <v>2.64</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.64</v>
+        <v>1.16</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>17.21</v>
+        <v>1.72</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>19</v>
+        <v>1.9</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>19.98</v>
+        <v>2</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>17.07</v>
+        <v>1.71</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>24.22</v>
+        <v>2.42</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.47</v>
+        <v>1.45</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>252.48</v>
+        <v>25.25</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>47.68</v>
+        <v>4.77</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.76</v>
+        <v>1.58</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>31.94</v>
+        <v>3.19</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>16.72</v>
+        <v>1.67</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.66</v>
+        <v>0.27</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>31.48</v>
+        <v>3.15</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.92</v>
+        <v>1.39</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.57</v>
+        <v>1.46</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>19.87</v>
+        <v>1.99</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>58.04</v>
+        <v>5.8</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.83</v>
+        <v>0.88</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>19.7</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41525.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.53</v>
+        <v>1.65</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.07</v>
+        <v>1.21</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>35.9</v>
+        <v>3.59</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>29.28</v>
+        <v>2.93</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.01</v>
+        <v>1.3</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>51.98</v>
+        <v>5.2</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.01</v>
+        <v>2</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.83</v>
+        <v>0.88</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.02</v>
+        <v>1.3</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.16</v>
+        <v>1.52</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.16</v>
+        <v>0.42</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.37</v>
+        <v>1.84</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.98</v>
+        <v>1.1</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>189.54</v>
+        <v>18.95</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>36.22</v>
+        <v>3.62</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.94</v>
+        <v>1.19</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>24.25</v>
+        <v>2.43</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.68</v>
+        <v>1.27</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.02</v>
+        <v>2.5</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.54</v>
+        <v>1.05</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.4</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.08</v>
+        <v>1.51</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>47.25</v>
+        <v>4.72</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.93</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41525.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>6.55</v>
+        <v>0.66</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>3.03</v>
+        <v>0.3</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>17.41</v>
+        <v>1.74</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>4.65</v>
+        <v>0.47</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>3.35</v>
+        <v>0.33</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>4.28</v>
+        <v>0.43</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>2.72</v>
+        <v>0.27</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="X6" s="4" t="n">
         <v>0.29</v>
       </c>
-      <c r="T6" s="4" t="n">
-        <v>38.52</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.91</v>
-      </c>
       <c r="Y6" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>7.87</v>
+        <v>0.79</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>2.45</v>
+        <v>0.25</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>2.28</v>
+        <v>0.23</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>2.66</v>
+        <v>0.27</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>16.21</v>
+        <v>1.62</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41525.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>18.74</v>
+        <v>1.87</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>13.85</v>
+        <v>1.38</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>40.74</v>
+        <v>4.07</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>33.4</v>
+        <v>3.34</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>14.74</v>
+        <v>1.47</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>53.39</v>
+        <v>5.34</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>22.69</v>
+        <v>2.27</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>14.94</v>
+        <v>1.49</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>16.35</v>
+        <v>1.64</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>17.25</v>
+        <v>1.72</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>20.85</v>
+        <v>2.09</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>12.34</v>
+        <v>1.23</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>215.84</v>
+        <v>21.58</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>40.88</v>
+        <v>4.09</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>27.5</v>
+        <v>2.75</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>14.45</v>
+        <v>1.45</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>26.41</v>
+        <v>2.64</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>11.95</v>
+        <v>1.2</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>12.45</v>
+        <v>1.24</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>17.16</v>
+        <v>1.72</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>48.17</v>
+        <v>4.82</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41525.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>18.26</v>
+        <v>1.83</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>13.52</v>
+        <v>1.35</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>39.7</v>
+        <v>3.97</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>32.57</v>
+        <v>3.26</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>14.37</v>
+        <v>1.44</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>56.03</v>
+        <v>5.6</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>22.11</v>
+        <v>2.21</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>9.85</v>
+        <v>0.98</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>14.58</v>
+        <v>1.46</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>15.94</v>
+        <v>1.59</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>16.82</v>
+        <v>1.68</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>14.29</v>
+        <v>1.43</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>20.36</v>
+        <v>2.04</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>12</v>
+        <v>1.2</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>210.14</v>
+        <v>21.01</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>39.97</v>
+        <v>4</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>26.91</v>
+        <v>2.69</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>14.11</v>
+        <v>1.41</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>27.26</v>
+        <v>2.73</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>11.65</v>
+        <v>1.16</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>10.31</v>
+        <v>1.03</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>12.12</v>
+        <v>1.21</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>16.72</v>
+        <v>1.67</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>50.92</v>
+        <v>5.09</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>16.49</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41525.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>13.93</v>
+        <v>1.39</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>10.3</v>
+        <v>1.03</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>30.3</v>
+        <v>3.03</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>24.83</v>
+        <v>2.48</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>10.96</v>
+        <v>1.1</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>44.22</v>
+        <v>4.42</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>16.87</v>
+        <v>1.69</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.51</v>
+        <v>0.75</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>12.16</v>
+        <v>1.22</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>12.83</v>
+        <v>1.28</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>15.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>9.18</v>
+        <v>0.92</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>158.64</v>
+        <v>15.86</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>30.54</v>
+        <v>3.05</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>20.54</v>
+        <v>2.05</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>21.25</v>
+        <v>2.12</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>7.88</v>
+        <v>0.79</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>9.26</v>
+        <v>0.93</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>12.76</v>
+        <v>1.28</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>40.19</v>
+        <v>4.02</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>12.58</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41525.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>4.18</v>
+        <v>0.42</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V10" s="4" t="n">
         <v>0.42</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>21.43</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>61.37</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>4.16</v>
-      </c>
       <c r="W10" s="4" t="n">
-        <v>8.56</v>
+        <v>0.86</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>4.43</v>
+        <v>0.44</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>3.3</v>
+        <v>0.33</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="AE10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF10" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AG10" s="4" t="n">
         <v>0.23</v>
       </c>
-      <c r="AF10" s="4" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>2.31</v>
-      </c>
       <c r="AH10" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_93.xlsx
+++ b/DATA_goal/Junction_Flooding_93.xlsx
@@ -447,10 +447,10 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
@@ -655,103 +655,103 @@
         <v>44781.88194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.88888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.95</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.52</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.6</v>
+        <v>15.99</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.3</v>
+        <v>22.98</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.36</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.87</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.73</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.64</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.55</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.65</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.1</v>
+        <v>100.95</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.98</v>
+        <v>19.77</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.93</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.58</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.72</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.77</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.73</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.71</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.9</v>
+        <v>8.98</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.99</v>
+        <v>19.91</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.89583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.61</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.79</v>
+        <v>17.92</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.3</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>95.42</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>18.93</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.72</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>2.36</v>
+        <v>23.62</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.36</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.90277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.61</v>
+        <v>16.06</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.64</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.33</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.44</v>
+        <v>24.42</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.92</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.64</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.56</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.71</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.84</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>8.4</v>
+        <v>84.05</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.85</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.72</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.47</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.84</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.88</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.37</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.19</v>
+        <v>21.94</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.01</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_93.xlsx
+++ b/DATA_goal/Junction_Flooding_93.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,100 +655,100 @@
         <v>44781.88194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.24</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.61</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.48</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.05</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.52</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.49</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.55</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.02</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.75</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.09</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.8</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.37</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.89</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.15</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.45</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>1.43</v>
@@ -762,100 +762,100 @@
         <v>10.3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.95</v>
+        <v>6.953</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.143</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.52</v>
+        <v>18.519</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>15.99</v>
+        <v>15.989</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.66</v>
+        <v>7.663</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>22.98</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10.36</v>
+        <v>10.356</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>4.87</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>8.301</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.56</v>
+        <v>7.564</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.73</v>
+        <v>7.729</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.31</v>
+        <v>2.306</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.64</v>
+        <v>6.637</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.55</v>
+        <v>10.548</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.65</v>
+        <v>5.655</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.18</v>
+        <v>0.176</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>100.95</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>19.77</v>
+        <v>19.767</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.93</v>
+        <v>6.928</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.58</v>
+        <v>13.576</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.72</v>
+        <v>6.724</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>11.77</v>
+        <v>11.775</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.73</v>
+        <v>5.733</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.77</v>
+        <v>4.767</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.71</v>
+        <v>5.712</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.98</v>
+        <v>8.978</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.13</v>
+        <v>1.133</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>19.91</v>
+        <v>19.905</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.46</v>
+        <v>3.464</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.89</v>
+        <v>7.894</v>
       </c>
     </row>
     <row r="4">
@@ -863,37 +863,37 @@
         <v>44781.89583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>9.385</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.61</v>
+        <v>6.606</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>17.92</v>
+        <v>17.925</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15.3</v>
+        <v>15.297</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.16</v>
+        <v>7.162</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>26.31</v>
+        <v>26.308</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.98</v>
+        <v>9.981</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.68</v>
+        <v>4.675</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.58</v>
+        <v>7.577</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.32</v>
+        <v>7.324</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>7.49</v>
@@ -902,69 +902,69 @@
         <v>2.18</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.44</v>
+        <v>6.438</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10</v>
+        <v>9.996</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.42</v>
+        <v>5.418</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.162</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>95.42</v>
+        <v>95.42100000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>18.93</v>
+        <v>18.932</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.47</v>
+        <v>6.469</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.92</v>
+        <v>12.917</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.5</v>
+        <v>6.495</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.888</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.01</v>
+        <v>13.008</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.48</v>
+        <v>5.477</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.61</v>
+        <v>4.613</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.5</v>
+        <v>5.495</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.35</v>
+        <v>8.353999999999999</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.716</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>23.62</v>
+        <v>23.623</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.36</v>
+        <v>3.358</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.58</v>
+        <v>7.581</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.90277777778</v>
+        <v>44781.9027662037</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>8.220000000000001</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>6.77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.90971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>21.42</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>30.47</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.51</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>112.69</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>22.05</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.97</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.88</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>27.36</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.98</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_93.xlsx
+++ b/DATA_goal/Junction_Flooding_93.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,106 +964,210 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.9027662037</v>
+        <v>44781.90277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>8.225</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.88</v>
+        <v>5.876</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.137</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>16.06</v>
+        <v>16.058</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.64</v>
+        <v>13.642</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.33</v>
+        <v>6.331</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>24.42</v>
+        <v>24.416</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.92</v>
+        <v>8.925000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.17</v>
+        <v>4.168</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.64</v>
+        <v>6.642</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.56</v>
+        <v>6.565</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.71</v>
+        <v>6.711</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.94</v>
+        <v>1.936</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.78</v>
+        <v>5.775</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>8.869</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.84</v>
+        <v>4.837</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.3</v>
+        <v>0.301</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.142</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>84.05</v>
+        <v>84.047</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>16.85</v>
+        <v>16.847</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.72</v>
+        <v>5.719</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.47</v>
+        <v>11.467</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>5.81</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.789</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.84</v>
+        <v>11.837</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.88</v>
+        <v>4.882</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.13</v>
+        <v>4.132</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.91</v>
+        <v>4.911</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.37</v>
+        <v>7.373</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.525</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>21.94</v>
+        <v>21.945</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.01</v>
+        <v>3.011</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.77</v>
+        <v>6.772</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.90971064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>30.47</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>112.69</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.98</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_93.xlsx
+++ b/DATA_goal/Junction_Flooding_93.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,210 +964,106 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.90277777778</v>
+        <v>44781.9027662037</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.225</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.876</v>
+        <v>5.88</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.137</v>
+        <v>0.14</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>16.058</v>
+        <v>16.06</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.642</v>
+        <v>13.64</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.331</v>
+        <v>6.33</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>24.416</v>
+        <v>24.42</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.925000000000001</v>
+        <v>8.92</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.168</v>
+        <v>4.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.642</v>
+        <v>6.64</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.565</v>
+        <v>6.56</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.711</v>
+        <v>6.71</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.936</v>
+        <v>1.94</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.775</v>
+        <v>5.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.869</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.837</v>
+        <v>4.84</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.301</v>
+        <v>0.3</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.142</v>
+        <v>0.14</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>84.047</v>
+        <v>84.05</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>16.847</v>
+        <v>16.85</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.719</v>
+        <v>5.72</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.467</v>
+        <v>11.47</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>5.81</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.789</v>
+        <v>0.79</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.837</v>
+        <v>11.84</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.882</v>
+        <v>4.88</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.132</v>
+        <v>4.13</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.911</v>
+        <v>4.91</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.373</v>
+        <v>7.37</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.525</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>21.945</v>
+        <v>21.94</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.011</v>
+        <v>3.01</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.772</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.90971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>21.42</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>30.47</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.51</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>112.69</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>22.05</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.97</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.88</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>27.36</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.98</v>
+        <v>6.77</v>
       </c>
     </row>
   </sheetData>
